--- a/CASUAL/LA GSO/FERMA, ERIC NAMUCO.xlsx
+++ b/CASUAL/LA GSO/FERMA, ERIC NAMUCO.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA GSO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA GSO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84F13C1-3EAA-4F02-A02C-2B463435CA10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="106">
   <si>
     <t>PERIOD</t>
   </si>
@@ -341,12 +340,24 @@
   </si>
   <si>
     <t>UT(0-1-40)</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>12/7,28/2023</t>
+  </si>
+  <si>
+    <t>SP(3-0-0)</t>
+  </si>
+  <si>
+    <t>12/19-21/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1034,7 +1045,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1077,7 +1088,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1141,7 +1152,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1201,7 +1212,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1267,7 +1278,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1330,7 +1341,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1428,7 +1439,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1487,7 +1498,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1552,7 +1563,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1595,7 +1606,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1670,7 +1681,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1856,7 +1867,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1922,7 +1933,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1980,7 +1991,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2046,7 +2057,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2102,7 +2113,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2177,7 +2188,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2220,7 +2231,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2286,7 +2297,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2342,7 +2353,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2421,7 +2432,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2438,25 +2449,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K176" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K179" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2763,7 +2774,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2773,7 +2784,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2781,34 +2792,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K176"/>
+  <dimension ref="A2:K179"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A121" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A118" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="K129" sqref="K129"/>
+      <selection pane="bottomLeft" activeCell="J130" sqref="J130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2829,7 +2840,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2847,7 +2858,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2869,7 +2880,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2877,7 +2888,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2890,7 +2901,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -2907,7 +2918,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2942,7 +2953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2951,7 +2962,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>56.686999999999991</v>
+        <v>55.936999999999991</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2961,12 +2972,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>29.582000000000001</v>
+        <v>27.832000000000001</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -2988,7 +2999,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3014,7 +3025,7 @@
         <v>43116</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3034,7 +3045,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3060,7 +3071,7 @@
         <v>43161</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3086,7 +3097,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>53</v>
@@ -3108,7 +3119,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>55</v>
@@ -3130,7 +3141,7 @@
         <v>43220</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>50</v>
@@ -3152,7 +3163,7 @@
         <v>43217</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43221</v>
       </c>
@@ -3176,7 +3187,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43252</v>
       </c>
@@ -3196,7 +3207,7 @@
       <c r="J19" s="12"/>
       <c r="K19" s="15"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43282</v>
       </c>
@@ -3222,7 +3233,7 @@
         <v>43304</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43313</v>
       </c>
@@ -3248,7 +3259,7 @@
         <v>43325</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43344</v>
       </c>
@@ -3274,7 +3285,7 @@
         <v>43362</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>43374</v>
       </c>
@@ -3300,7 +3311,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43405</v>
       </c>
@@ -3326,7 +3337,7 @@
         <v>43413</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>59</v>
@@ -3346,7 +3357,7 @@
         <v>43423</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43435</v>
       </c>
@@ -3372,7 +3383,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>59</v>
@@ -3392,7 +3403,7 @@
         <v>43452</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>59</v>
@@ -3412,7 +3423,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>61</v>
@@ -3432,7 +3443,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="48" t="s">
         <v>46</v>
       </c>
@@ -3447,7 +3458,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43466</v>
       </c>
@@ -3473,7 +3484,7 @@
         <v>43480</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>59</v>
@@ -3493,7 +3504,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43497</v>
       </c>
@@ -3519,7 +3530,7 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>50</v>
@@ -3541,7 +3552,7 @@
         <v>43510</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>59</v>
@@ -3561,7 +3572,7 @@
         <v>43514</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>43525</v>
       </c>
@@ -3587,7 +3598,7 @@
         <v>43528</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43556</v>
       </c>
@@ -3613,7 +3624,7 @@
         <v>43578</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43586</v>
       </c>
@@ -3633,7 +3644,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43617</v>
       </c>
@@ -3659,7 +3670,7 @@
         <v>43620</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>59</v>
@@ -3679,7 +3690,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43647</v>
       </c>
@@ -3705,7 +3716,7 @@
         <v>43654</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>57</v>
@@ -3727,7 +3738,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43678</v>
       </c>
@@ -3753,7 +3764,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>43709</v>
       </c>
@@ -3779,7 +3790,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>51</v>
@@ -3801,7 +3812,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>53</v>
@@ -3823,7 +3834,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>43739</v>
       </c>
@@ -3849,7 +3860,7 @@
         <v>43762</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>53</v>
@@ -3871,7 +3882,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>43770</v>
       </c>
@@ -3891,7 +3902,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>43800</v>
       </c>
@@ -3917,7 +3928,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="48" t="s">
         <v>47</v>
       </c>
@@ -3932,7 +3943,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>43831</v>
       </c>
@@ -3958,7 +3969,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>70</v>
@@ -3978,7 +3989,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>43862</v>
       </c>
@@ -4002,7 +4013,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>43891</v>
       </c>
@@ -4022,7 +4033,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>43922</v>
       </c>
@@ -4042,7 +4053,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>43952</v>
       </c>
@@ -4062,7 +4073,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>43983</v>
       </c>
@@ -4082,7 +4093,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44013</v>
       </c>
@@ -4108,7 +4119,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44044</v>
       </c>
@@ -4128,7 +4139,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44075</v>
       </c>
@@ -4148,7 +4159,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44105</v>
       </c>
@@ -4168,7 +4179,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44136</v>
       </c>
@@ -4188,7 +4199,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44166</v>
       </c>
@@ -4212,7 +4223,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="48" t="s">
         <v>48</v>
       </c>
@@ -4227,7 +4238,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44197</v>
       </c>
@@ -4247,7 +4258,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44228</v>
       </c>
@@ -4267,7 +4278,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44256</v>
       </c>
@@ -4287,7 +4298,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44287</v>
       </c>
@@ -4307,7 +4318,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44317</v>
       </c>
@@ -4327,7 +4338,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44348</v>
       </c>
@@ -4353,7 +4364,7 @@
         <v>44357</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44378</v>
       </c>
@@ -4379,7 +4390,7 @@
         <v>44386</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>50</v>
@@ -4401,7 +4412,7 @@
         <v>44393</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44409</v>
       </c>
@@ -4427,7 +4438,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44440</v>
       </c>
@@ -4447,7 +4458,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44470</v>
       </c>
@@ -4473,7 +4484,7 @@
         <v>44484</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>50</v>
@@ -4495,7 +4506,7 @@
         <v>44489</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>59</v>
@@ -4515,7 +4526,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>44501</v>
       </c>
@@ -4541,7 +4552,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>44531</v>
       </c>
@@ -4565,7 +4576,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>51</v>
@@ -4587,7 +4598,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>82</v>
@@ -4609,7 +4620,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>59</v>
@@ -4629,7 +4640,7 @@
         <v>44552</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>53</v>
@@ -4651,7 +4662,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="48" t="s">
         <v>49</v>
       </c>
@@ -4669,7 +4680,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>44562</v>
       </c>
@@ -4695,7 +4706,7 @@
         <v>44564</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>50</v>
@@ -4717,7 +4728,7 @@
         <v>44582</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>59</v>
@@ -4737,7 +4748,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>55</v>
@@ -4759,7 +4770,7 @@
         <v>44592</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>44593</v>
       </c>
@@ -4785,7 +4796,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4801,7 +4812,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="49"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>44621</v>
       </c>
@@ -4821,7 +4832,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>44652</v>
       </c>
@@ -4847,7 +4858,7 @@
         <v>44656</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>59</v>
@@ -4867,7 +4878,7 @@
         <v>44659</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>98</v>
@@ -4889,7 +4900,7 @@
         <v>44680</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
         <v>101</v>
@@ -4909,7 +4920,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="49"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>44682</v>
       </c>
@@ -4935,7 +4946,7 @@
         <v>44697</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>59</v>
@@ -4955,7 +4966,7 @@
         <v>44699</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>98</v>
@@ -4977,7 +4988,7 @@
         <v>44683</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>100</v>
@@ -4997,7 +5008,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="49"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>44713</v>
       </c>
@@ -5023,7 +5034,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>98</v>
@@ -5045,7 +5056,7 @@
         <v>44718</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>99</v>
@@ -5065,7 +5076,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="49"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>44743</v>
       </c>
@@ -5089,7 +5100,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>44774</v>
       </c>
@@ -5109,7 +5120,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>44805</v>
       </c>
@@ -5135,7 +5146,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
         <v>97</v>
@@ -5155,7 +5166,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>44835</v>
       </c>
@@ -5181,7 +5192,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>94</v>
@@ -5201,7 +5212,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>44866</v>
       </c>
@@ -5221,7 +5232,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>44896</v>
       </c>
@@ -5245,7 +5256,7 @@
         <v>44922</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>51</v>
@@ -5267,7 +5278,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>93</v>
@@ -5287,7 +5298,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="49"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="48" t="s">
         <v>87</v>
       </c>
@@ -5305,7 +5316,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>44927</v>
       </c>
@@ -5325,7 +5336,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>44958</v>
       </c>
@@ -5345,7 +5356,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>44986</v>
       </c>
@@ -5365,7 +5376,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>45017</v>
       </c>
@@ -5385,7 +5396,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>45047</v>
       </c>
@@ -5411,7 +5422,7 @@
         <v>45075</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>45078</v>
       </c>
@@ -5431,7 +5442,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>45108</v>
       </c>
@@ -5457,7 +5468,7 @@
         <v>45124</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>53</v>
@@ -5479,7 +5490,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>45139</v>
       </c>
@@ -5499,7 +5510,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>45170</v>
       </c>
@@ -5525,7 +5536,7 @@
         <v>45184</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>45200</v>
       </c>
@@ -5551,7 +5562,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>57</v>
@@ -5573,7 +5584,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>53</v>
@@ -5595,7 +5606,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>45231</v>
       </c>
@@ -5621,60 +5632,72 @@
         <v>45254</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>45261</v>
       </c>
-      <c r="B129" s="20"/>
-      <c r="C129" s="13"/>
-      <c r="D129" s="39"/>
+      <c r="B129" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C129" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D129" s="39">
+        <v>2</v>
+      </c>
       <c r="E129" s="9"/>
       <c r="F129" s="20"/>
-      <c r="G129" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G129" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H129" s="39"/>
       <c r="I129" s="9"/>
       <c r="J129" s="11"/>
-      <c r="K129" s="20"/>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A130" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B130" s="20"/>
+      <c r="K129" s="49">
+        <v>45289</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" s="40"/>
+      <c r="B130" s="20" t="s">
+        <v>104</v>
+      </c>
       <c r="C130" s="13"/>
       <c r="D130" s="39"/>
       <c r="E130" s="9"/>
       <c r="F130" s="20"/>
-      <c r="G130" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G130" s="13"/>
       <c r="H130" s="39"/>
       <c r="I130" s="9"/>
       <c r="J130" s="11"/>
-      <c r="K130" s="20"/>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K130" s="49" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
-      <c r="B131" s="20"/>
+      <c r="B131" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C131" s="13"/>
       <c r="D131" s="39"/>
       <c r="E131" s="9"/>
       <c r="F131" s="20"/>
-      <c r="G131" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H131" s="39"/>
+      <c r="G131" s="13"/>
+      <c r="H131" s="39">
+        <v>1</v>
+      </c>
       <c r="I131" s="9"/>
       <c r="J131" s="11"/>
-      <c r="K131" s="20"/>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A132" s="40"/>
+      <c r="K131" s="49">
+        <v>45278</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" s="48" t="s">
+        <v>102</v>
+      </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
       <c r="D132" s="39"/>
@@ -5689,9 +5712,13 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A133" s="40"/>
-      <c r="B133" s="20"/>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="40">
+        <v>45292</v>
+      </c>
+      <c r="B133" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C133" s="13"/>
       <c r="D133" s="39"/>
       <c r="E133" s="9"/>
@@ -5700,13 +5727,19 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H133" s="39"/>
+      <c r="H133" s="39">
+        <v>2</v>
+      </c>
       <c r="I133" s="9"/>
       <c r="J133" s="11"/>
-      <c r="K133" s="20"/>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A134" s="40"/>
+      <c r="K133" s="20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" s="40">
+        <v>45323</v>
+      </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
       <c r="D134" s="39"/>
@@ -5721,8 +5754,10 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A135" s="40"/>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" s="40">
+        <v>45352</v>
+      </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
       <c r="D135" s="39"/>
@@ -5737,8 +5772,10 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A136" s="40"/>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" s="40">
+        <v>45383</v>
+      </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
       <c r="D136" s="39"/>
@@ -5753,8 +5790,10 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A137" s="40"/>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" s="40">
+        <v>45413</v>
+      </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
       <c r="D137" s="39"/>
@@ -5769,8 +5808,10 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A138" s="40"/>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" s="40">
+        <v>45444</v>
+      </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
       <c r="D138" s="39"/>
@@ -5785,8 +5826,10 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A139" s="40"/>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" s="40">
+        <v>45474</v>
+      </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
       <c r="D139" s="39"/>
@@ -5801,8 +5844,10 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A140" s="40"/>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" s="40">
+        <v>45505</v>
+      </c>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
       <c r="D140" s="39"/>
@@ -5817,8 +5862,10 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A141" s="40"/>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141" s="40">
+        <v>45536</v>
+      </c>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
       <c r="D141" s="39"/>
@@ -5833,8 +5880,10 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A142" s="40"/>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142" s="40">
+        <v>45566</v>
+      </c>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
       <c r="D142" s="39"/>
@@ -5849,8 +5898,10 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A143" s="40"/>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143" s="40">
+        <v>45597</v>
+      </c>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
       <c r="D143" s="39"/>
@@ -5865,8 +5916,10 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A144" s="40"/>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" s="40">
+        <v>45627</v>
+      </c>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
       <c r="D144" s="39"/>
@@ -5881,7 +5934,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -5897,7 +5950,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -5913,7 +5966,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -5929,7 +5982,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40"/>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -5945,7 +5998,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -5961,7 +6014,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40"/>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -5977,7 +6030,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40"/>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -5993,7 +6046,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
@@ -6009,7 +6062,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40"/>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
@@ -6025,7 +6078,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40"/>
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
@@ -6041,7 +6094,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
@@ -6057,7 +6110,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
       <c r="B156" s="20"/>
       <c r="C156" s="13"/>
@@ -6073,7 +6126,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40"/>
       <c r="B157" s="20"/>
       <c r="C157" s="13"/>
@@ -6089,7 +6142,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40"/>
       <c r="B158" s="20"/>
       <c r="C158" s="13"/>
@@ -6105,7 +6158,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40"/>
       <c r="B159" s="20"/>
       <c r="C159" s="13"/>
@@ -6121,7 +6174,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
       <c r="B160" s="20"/>
       <c r="C160" s="13"/>
@@ -6137,7 +6190,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40"/>
       <c r="B161" s="20"/>
       <c r="C161" s="13"/>
@@ -6153,7 +6206,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20"/>
       <c r="C162" s="13"/>
@@ -6169,7 +6222,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40"/>
       <c r="B163" s="20"/>
       <c r="C163" s="13"/>
@@ -6185,7 +6238,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
       <c r="B164" s="20"/>
       <c r="C164" s="13"/>
@@ -6201,7 +6254,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40"/>
       <c r="B165" s="20"/>
       <c r="C165" s="13"/>
@@ -6217,7 +6270,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40"/>
       <c r="B166" s="20"/>
       <c r="C166" s="13"/>
@@ -6233,7 +6286,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20"/>
       <c r="C167" s="13"/>
@@ -6249,7 +6302,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
       <c r="B168" s="20"/>
       <c r="C168" s="13"/>
@@ -6265,7 +6318,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
       <c r="B169" s="20"/>
       <c r="C169" s="13"/>
@@ -6281,7 +6334,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
       <c r="B170" s="20"/>
       <c r="C170" s="13"/>
@@ -6297,7 +6350,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40"/>
       <c r="B171" s="20"/>
       <c r="C171" s="13"/>
@@ -6313,7 +6366,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20"/>
       <c r="C172" s="13"/>
@@ -6329,7 +6382,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20"/>
       <c r="C173" s="13"/>
@@ -6345,7 +6398,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20"/>
       <c r="C174" s="13"/>
@@ -6361,7 +6414,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20"/>
       <c r="C175" s="13"/>
@@ -6377,21 +6430,69 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A176" s="41"/>
-      <c r="B176" s="15"/>
-      <c r="C176" s="42"/>
-      <c r="D176" s="43"/>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A176" s="40"/>
+      <c r="B176" s="20"/>
+      <c r="C176" s="13"/>
+      <c r="D176" s="39"/>
       <c r="E176" s="9"/>
-      <c r="F176" s="15"/>
-      <c r="G176" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H176" s="43"/>
+      <c r="F176" s="20"/>
+      <c r="G176" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H176" s="39"/>
       <c r="I176" s="9"/>
-      <c r="J176" s="12"/>
-      <c r="K176" s="15"/>
+      <c r="J176" s="11"/>
+      <c r="K176" s="20"/>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A177" s="40"/>
+      <c r="B177" s="20"/>
+      <c r="C177" s="13"/>
+      <c r="D177" s="39"/>
+      <c r="E177" s="9"/>
+      <c r="F177" s="20"/>
+      <c r="G177" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H177" s="39"/>
+      <c r="I177" s="9"/>
+      <c r="J177" s="11"/>
+      <c r="K177" s="20"/>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A178" s="40"/>
+      <c r="B178" s="20"/>
+      <c r="C178" s="13"/>
+      <c r="D178" s="39"/>
+      <c r="E178" s="9"/>
+      <c r="F178" s="20"/>
+      <c r="G178" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H178" s="39"/>
+      <c r="I178" s="9"/>
+      <c r="J178" s="11"/>
+      <c r="K178" s="20"/>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A179" s="41"/>
+      <c r="B179" s="15"/>
+      <c r="C179" s="42"/>
+      <c r="D179" s="43"/>
+      <c r="E179" s="9"/>
+      <c r="F179" s="15"/>
+      <c r="G179" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H179" s="43"/>
+      <c r="I179" s="9"/>
+      <c r="J179" s="12"/>
+      <c r="K179" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -6408,10 +6509,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6434,28 +6535,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -6468,7 +6569,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -6497,7 +6598,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>8.9149999999999991</v>
       </c>
@@ -6525,17 +6626,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -6556,7 +6657,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -6583,7 +6684,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -6609,7 +6710,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -6635,7 +6736,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -6661,7 +6762,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -6687,7 +6788,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -6713,7 +6814,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -6739,7 +6840,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -6765,7 +6866,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -6785,7 +6886,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -6805,7 +6906,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -6825,7 +6926,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -6846,7 +6947,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -6867,7 +6968,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -6888,7 +6989,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -6909,7 +7010,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -6930,7 +7031,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -6951,7 +7052,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -6972,7 +7073,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -6993,7 +7094,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -7014,7 +7115,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -7035,7 +7136,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -7056,7 +7157,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -7077,7 +7178,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -7098,7 +7199,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -7119,7 +7220,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -7140,7 +7241,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -7161,7 +7262,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -7182,7 +7283,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -7203,7 +7304,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -7224,7 +7325,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -7245,7 +7346,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -7254,7 +7355,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -7263,7 +7364,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -7272,7 +7373,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -7281,7 +7382,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -7290,7 +7391,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -7299,7 +7400,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -7308,7 +7409,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -7317,7 +7418,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -7326,7 +7427,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -7335,7 +7436,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -7344,7 +7445,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -7353,7 +7454,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -7362,7 +7463,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -7371,7 +7472,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -7380,7 +7481,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -7389,7 +7490,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -7398,7 +7499,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -7407,7 +7508,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -7416,7 +7517,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -7425,7 +7526,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -7434,7 +7535,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -7443,7 +7544,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -7452,7 +7553,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -7461,7 +7562,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -7470,7 +7571,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -7479,7 +7580,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -7488,7 +7589,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -7497,7 +7598,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -7506,7 +7607,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/CASUAL/LA GSO/FERMA, ERIC NAMUCO.xlsx
+++ b/CASUAL/LA GSO/FERMA, ERIC NAMUCO.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA GSO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA GSO\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85B9B53-643B-461F-8026-51760AC921C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="106">
   <si>
     <t>PERIOD</t>
   </si>
@@ -357,7 +358,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1045,7 +1046,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1088,7 +1089,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1152,7 +1153,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1212,7 +1213,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1278,7 +1279,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1341,7 +1342,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1439,7 +1440,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1498,7 +1499,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1563,7 +1564,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1606,7 +1607,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1681,7 +1682,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1867,7 +1868,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1933,7 +1934,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1991,7 +1992,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2057,7 +2058,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2113,7 +2114,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2188,7 +2189,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2231,7 +2232,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2297,7 +2298,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2353,7 +2354,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2432,7 +2433,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2449,25 +2450,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K179" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K180" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2774,7 +2775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2784,7 +2785,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2792,34 +2793,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K179"/>
+  <dimension ref="A2:K180"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A118" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A127" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="J130" sqref="J130"/>
+      <selection pane="bottomLeft" activeCell="B135" sqref="B135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2840,7 +2841,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2858,7 +2859,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2880,7 +2881,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2888,7 +2889,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2901,7 +2902,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -2918,7 +2919,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2953,7 +2954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2962,7 +2963,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>55.936999999999991</v>
+        <v>57.186999999999991</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2972,12 +2973,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>27.832000000000001</v>
+        <v>28.082000000000001</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -2999,7 +3000,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3025,7 +3026,7 @@
         <v>43116</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3045,7 +3046,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3071,7 +3072,7 @@
         <v>43161</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3097,7 +3098,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>53</v>
@@ -3119,7 +3120,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>55</v>
@@ -3141,7 +3142,7 @@
         <v>43220</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>50</v>
@@ -3163,7 +3164,7 @@
         <v>43217</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43221</v>
       </c>
@@ -3187,7 +3188,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43252</v>
       </c>
@@ -3207,7 +3208,7 @@
       <c r="J19" s="12"/>
       <c r="K19" s="15"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43282</v>
       </c>
@@ -3233,7 +3234,7 @@
         <v>43304</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43313</v>
       </c>
@@ -3259,7 +3260,7 @@
         <v>43325</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43344</v>
       </c>
@@ -3285,7 +3286,7 @@
         <v>43362</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>43374</v>
       </c>
@@ -3311,7 +3312,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43405</v>
       </c>
@@ -3337,7 +3338,7 @@
         <v>43413</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>59</v>
@@ -3357,7 +3358,7 @@
         <v>43423</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43435</v>
       </c>
@@ -3383,7 +3384,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>59</v>
@@ -3403,7 +3404,7 @@
         <v>43452</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>59</v>
@@ -3423,7 +3424,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>61</v>
@@ -3443,7 +3444,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="48" t="s">
         <v>46</v>
       </c>
@@ -3458,7 +3459,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43466</v>
       </c>
@@ -3484,7 +3485,7 @@
         <v>43480</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>59</v>
@@ -3504,7 +3505,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43497</v>
       </c>
@@ -3530,7 +3531,7 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>50</v>
@@ -3552,7 +3553,7 @@
         <v>43510</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>59</v>
@@ -3572,7 +3573,7 @@
         <v>43514</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>43525</v>
       </c>
@@ -3598,7 +3599,7 @@
         <v>43528</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43556</v>
       </c>
@@ -3624,7 +3625,7 @@
         <v>43578</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43586</v>
       </c>
@@ -3644,7 +3645,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43617</v>
       </c>
@@ -3670,7 +3671,7 @@
         <v>43620</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>59</v>
@@ -3690,7 +3691,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43647</v>
       </c>
@@ -3716,7 +3717,7 @@
         <v>43654</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>57</v>
@@ -3738,7 +3739,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>43678</v>
       </c>
@@ -3764,7 +3765,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>43709</v>
       </c>
@@ -3790,7 +3791,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>51</v>
@@ -3812,7 +3813,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>53</v>
@@ -3834,7 +3835,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>43739</v>
       </c>
@@ -3860,7 +3861,7 @@
         <v>43762</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>53</v>
@@ -3882,7 +3883,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>43770</v>
       </c>
@@ -3902,7 +3903,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>43800</v>
       </c>
@@ -3928,7 +3929,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="48" t="s">
         <v>47</v>
       </c>
@@ -3943,7 +3944,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>43831</v>
       </c>
@@ -3969,7 +3970,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>70</v>
@@ -3989,7 +3990,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>43862</v>
       </c>
@@ -4013,7 +4014,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>43891</v>
       </c>
@@ -4033,7 +4034,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>43922</v>
       </c>
@@ -4053,7 +4054,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>43952</v>
       </c>
@@ -4073,7 +4074,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>43983</v>
       </c>
@@ -4093,7 +4094,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44013</v>
       </c>
@@ -4119,7 +4120,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44044</v>
       </c>
@@ -4139,7 +4140,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44075</v>
       </c>
@@ -4159,7 +4160,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>44105</v>
       </c>
@@ -4179,7 +4180,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44136</v>
       </c>
@@ -4199,7 +4200,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44166</v>
       </c>
@@ -4223,7 +4224,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="48" t="s">
         <v>48</v>
       </c>
@@ -4238,7 +4239,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44197</v>
       </c>
@@ -4258,7 +4259,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44228</v>
       </c>
@@ -4278,7 +4279,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44256</v>
       </c>
@@ -4298,7 +4299,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44287</v>
       </c>
@@ -4318,7 +4319,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44317</v>
       </c>
@@ -4338,7 +4339,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44348</v>
       </c>
@@ -4364,7 +4365,7 @@
         <v>44357</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44378</v>
       </c>
@@ -4390,7 +4391,7 @@
         <v>44386</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>50</v>
@@ -4412,7 +4413,7 @@
         <v>44393</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44409</v>
       </c>
@@ -4438,7 +4439,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>44440</v>
       </c>
@@ -4458,7 +4459,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>44470</v>
       </c>
@@ -4484,7 +4485,7 @@
         <v>44484</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>50</v>
@@ -4506,7 +4507,7 @@
         <v>44489</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>59</v>
@@ -4526,7 +4527,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>44501</v>
       </c>
@@ -4552,7 +4553,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>44531</v>
       </c>
@@ -4576,7 +4577,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>51</v>
@@ -4598,7 +4599,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>82</v>
@@ -4620,7 +4621,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>59</v>
@@ -4640,7 +4641,7 @@
         <v>44552</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>53</v>
@@ -4662,7 +4663,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="48" t="s">
         <v>49</v>
       </c>
@@ -4680,7 +4681,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>44562</v>
       </c>
@@ -4706,7 +4707,7 @@
         <v>44564</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>50</v>
@@ -4728,7 +4729,7 @@
         <v>44582</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>59</v>
@@ -4748,7 +4749,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>55</v>
@@ -4770,7 +4771,7 @@
         <v>44592</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>44593</v>
       </c>
@@ -4796,7 +4797,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4812,7 +4813,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="49"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>44621</v>
       </c>
@@ -4832,7 +4833,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>44652</v>
       </c>
@@ -4858,7 +4859,7 @@
         <v>44656</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>59</v>
@@ -4878,7 +4879,7 @@
         <v>44659</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>98</v>
@@ -4900,7 +4901,7 @@
         <v>44680</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
         <v>101</v>
@@ -4920,7 +4921,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="49"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>44682</v>
       </c>
@@ -4946,7 +4947,7 @@
         <v>44697</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>59</v>
@@ -4966,7 +4967,7 @@
         <v>44699</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>98</v>
@@ -4988,7 +4989,7 @@
         <v>44683</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>100</v>
@@ -5008,7 +5009,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="49"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>44713</v>
       </c>
@@ -5034,7 +5035,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>98</v>
@@ -5056,7 +5057,7 @@
         <v>44718</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>99</v>
@@ -5076,7 +5077,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="49"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <v>44743</v>
       </c>
@@ -5100,7 +5101,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <v>44774</v>
       </c>
@@ -5120,7 +5121,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>44805</v>
       </c>
@@ -5146,7 +5147,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
         <v>97</v>
@@ -5166,7 +5167,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>44835</v>
       </c>
@@ -5192,7 +5193,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>94</v>
@@ -5212,7 +5213,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>44866</v>
       </c>
@@ -5232,7 +5233,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>44896</v>
       </c>
@@ -5256,7 +5257,7 @@
         <v>44922</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>51</v>
@@ -5278,7 +5279,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>93</v>
@@ -5298,7 +5299,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="49"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="48" t="s">
         <v>87</v>
       </c>
@@ -5316,7 +5317,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>44927</v>
       </c>
@@ -5336,7 +5337,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <v>44958</v>
       </c>
@@ -5356,7 +5357,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>44986</v>
       </c>
@@ -5376,7 +5377,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <v>45017</v>
       </c>
@@ -5396,7 +5397,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>45047</v>
       </c>
@@ -5422,7 +5423,7 @@
         <v>45075</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <v>45078</v>
       </c>
@@ -5442,7 +5443,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <v>45108</v>
       </c>
@@ -5468,7 +5469,7 @@
         <v>45124</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>53</v>
@@ -5490,7 +5491,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <v>45139</v>
       </c>
@@ -5510,7 +5511,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <v>45170</v>
       </c>
@@ -5536,7 +5537,7 @@
         <v>45184</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <v>45200</v>
       </c>
@@ -5562,7 +5563,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>57</v>
@@ -5584,7 +5585,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>53</v>
@@ -5606,7 +5607,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <v>45231</v>
       </c>
@@ -5632,7 +5633,7 @@
         <v>45254</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <v>45261</v>
       </c>
@@ -5658,7 +5659,7 @@
         <v>45289</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>104</v>
@@ -5675,7 +5676,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20" t="s">
         <v>50</v>
@@ -5694,7 +5695,7 @@
         <v>45278</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="48" t="s">
         <v>102</v>
       </c>
@@ -5712,20 +5713,22 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <v>45292</v>
       </c>
       <c r="B133" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C133" s="13"/>
+      <c r="C133" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D133" s="39"/>
       <c r="E133" s="9"/>
       <c r="F133" s="20"/>
-      <c r="G133" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G133" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H133" s="39">
         <v>2</v>
@@ -5736,11 +5739,11 @@
         <v>103</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B134" s="20"/>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134" s="40"/>
+      <c r="B134" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C134" s="13"/>
       <c r="D134" s="39"/>
       <c r="E134" s="9"/>
@@ -5749,14 +5752,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H134" s="39"/>
+      <c r="H134" s="39">
+        <v>1</v>
+      </c>
       <c r="I134" s="9"/>
       <c r="J134" s="11"/>
-      <c r="K134" s="20"/>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K134" s="49">
+        <v>45320</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5772,9 +5779,9 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5790,9 +5797,9 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5808,9 +5815,9 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -5826,9 +5833,9 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -5844,9 +5851,9 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -5862,9 +5869,9 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -5880,9 +5887,9 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -5898,9 +5905,9 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -5916,9 +5923,9 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -5934,8 +5941,10 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" s="40"/>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A145" s="40">
+        <v>45627</v>
+      </c>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
       <c r="D145" s="39"/>
@@ -5950,7 +5959,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -5966,7 +5975,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40"/>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -5982,7 +5991,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40"/>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -5998,7 +6007,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40"/>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -6014,7 +6023,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40"/>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -6030,7 +6039,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40"/>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -6046,7 +6055,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40"/>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
@@ -6062,7 +6071,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40"/>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
@@ -6078,7 +6087,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40"/>
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
@@ -6094,7 +6103,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40"/>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
@@ -6110,7 +6119,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40"/>
       <c r="B156" s="20"/>
       <c r="C156" s="13"/>
@@ -6126,7 +6135,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40"/>
       <c r="B157" s="20"/>
       <c r="C157" s="13"/>
@@ -6142,7 +6151,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40"/>
       <c r="B158" s="20"/>
       <c r="C158" s="13"/>
@@ -6158,7 +6167,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40"/>
       <c r="B159" s="20"/>
       <c r="C159" s="13"/>
@@ -6174,7 +6183,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40"/>
       <c r="B160" s="20"/>
       <c r="C160" s="13"/>
@@ -6190,7 +6199,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40"/>
       <c r="B161" s="20"/>
       <c r="C161" s="13"/>
@@ -6206,7 +6215,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40"/>
       <c r="B162" s="20"/>
       <c r="C162" s="13"/>
@@ -6222,7 +6231,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40"/>
       <c r="B163" s="20"/>
       <c r="C163" s="13"/>
@@ -6238,7 +6247,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40"/>
       <c r="B164" s="20"/>
       <c r="C164" s="13"/>
@@ -6254,7 +6263,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40"/>
       <c r="B165" s="20"/>
       <c r="C165" s="13"/>
@@ -6270,7 +6279,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40"/>
       <c r="B166" s="20"/>
       <c r="C166" s="13"/>
@@ -6286,7 +6295,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40"/>
       <c r="B167" s="20"/>
       <c r="C167" s="13"/>
@@ -6302,7 +6311,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40"/>
       <c r="B168" s="20"/>
       <c r="C168" s="13"/>
@@ -6318,7 +6327,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40"/>
       <c r="B169" s="20"/>
       <c r="C169" s="13"/>
@@ -6334,7 +6343,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40"/>
       <c r="B170" s="20"/>
       <c r="C170" s="13"/>
@@ -6350,7 +6359,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40"/>
       <c r="B171" s="20"/>
       <c r="C171" s="13"/>
@@ -6366,7 +6375,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40"/>
       <c r="B172" s="20"/>
       <c r="C172" s="13"/>
@@ -6382,7 +6391,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40"/>
       <c r="B173" s="20"/>
       <c r="C173" s="13"/>
@@ -6398,7 +6407,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40"/>
       <c r="B174" s="20"/>
       <c r="C174" s="13"/>
@@ -6414,7 +6423,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40"/>
       <c r="B175" s="20"/>
       <c r="C175" s="13"/>
@@ -6430,7 +6439,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40"/>
       <c r="B176" s="20"/>
       <c r="C176" s="13"/>
@@ -6446,7 +6455,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40"/>
       <c r="B177" s="20"/>
       <c r="C177" s="13"/>
@@ -6462,7 +6471,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40"/>
       <c r="B178" s="20"/>
       <c r="C178" s="13"/>
@@ -6478,21 +6487,37 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A179" s="41"/>
-      <c r="B179" s="15"/>
-      <c r="C179" s="42"/>
-      <c r="D179" s="43"/>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A179" s="40"/>
+      <c r="B179" s="20"/>
+      <c r="C179" s="13"/>
+      <c r="D179" s="39"/>
       <c r="E179" s="9"/>
-      <c r="F179" s="15"/>
-      <c r="G179" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H179" s="43"/>
+      <c r="F179" s="20"/>
+      <c r="G179" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H179" s="39"/>
       <c r="I179" s="9"/>
-      <c r="J179" s="12"/>
-      <c r="K179" s="15"/>
+      <c r="J179" s="11"/>
+      <c r="K179" s="20"/>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A180" s="41"/>
+      <c r="B180" s="15"/>
+      <c r="C180" s="42"/>
+      <c r="D180" s="43"/>
+      <c r="E180" s="9"/>
+      <c r="F180" s="15"/>
+      <c r="G180" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H180" s="43"/>
+      <c r="I180" s="9"/>
+      <c r="J180" s="12"/>
+      <c r="K180" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -6509,10 +6534,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6535,28 +6560,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -6569,7 +6594,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -6598,7 +6623,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>8.9149999999999991</v>
       </c>
@@ -6626,17 +6651,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -6657,7 +6682,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -6684,7 +6709,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -6710,7 +6735,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -6736,7 +6761,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -6762,7 +6787,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -6788,7 +6813,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -6814,7 +6839,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -6840,7 +6865,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -6866,7 +6891,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -6886,7 +6911,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -6906,7 +6931,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -6926,7 +6951,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -6947,7 +6972,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -6968,7 +6993,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -6989,7 +7014,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -7010,7 +7035,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -7031,7 +7056,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -7052,7 +7077,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -7073,7 +7098,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -7094,7 +7119,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -7115,7 +7140,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -7136,7 +7161,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -7157,7 +7182,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -7178,7 +7203,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -7199,7 +7224,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -7220,7 +7245,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -7241,7 +7266,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -7262,7 +7287,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -7283,7 +7308,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -7304,7 +7329,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -7325,7 +7350,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -7346,7 +7371,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -7355,7 +7380,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -7364,7 +7389,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -7373,7 +7398,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -7382,7 +7407,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -7391,7 +7416,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -7400,7 +7425,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -7409,7 +7434,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -7418,7 +7443,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -7427,7 +7452,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -7436,7 +7461,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -7445,7 +7470,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -7454,7 +7479,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -7463,7 +7488,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -7472,7 +7497,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -7481,7 +7506,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -7490,7 +7515,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -7499,7 +7524,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -7508,7 +7533,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -7517,7 +7542,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -7526,7 +7551,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -7535,7 +7560,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -7544,7 +7569,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -7553,7 +7578,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -7562,7 +7587,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -7571,7 +7596,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -7580,7 +7605,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -7589,7 +7614,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -7598,7 +7623,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -7607,7 +7632,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/CASUAL/LA GSO/FERMA, ERIC NAMUCO.xlsx
+++ b/CASUAL/LA GSO/FERMA, ERIC NAMUCO.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA GSO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA GSO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85B9B53-643B-461F-8026-51760AC921C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="107">
   <si>
     <t>PERIOD</t>
   </si>
@@ -353,12 +352,15 @@
   </si>
   <si>
     <t>12/19-21/2023</t>
+  </si>
+  <si>
+    <t>02/12,13/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1046,7 +1048,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1089,7 +1091,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1153,7 +1155,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1213,7 +1215,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1279,7 +1281,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1342,7 +1344,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1440,7 +1442,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1499,7 +1501,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1564,7 +1566,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1607,7 +1609,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1682,7 +1684,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1868,7 +1870,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1934,7 +1936,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1992,7 +1994,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2058,7 +2060,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2114,7 +2116,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2189,7 +2191,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2232,7 +2234,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2298,7 +2300,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2354,7 +2356,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2433,7 +2435,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2450,25 +2452,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K180" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K180" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2775,7 +2777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2785,7 +2787,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2793,34 +2795,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K180"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A127" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A127" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="B135" sqref="B135"/>
+      <selection pane="bottomLeft" activeCell="E140" sqref="E140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2841,7 +2843,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2859,7 +2861,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2881,7 +2883,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2889,7 +2891,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2902,7 +2904,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -2919,7 +2921,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2954,7 +2956,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2973,12 +2975,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>28.082000000000001</v>
+        <v>26.082000000000001</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -3000,7 +3002,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3026,7 +3028,7 @@
         <v>43116</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3046,7 +3048,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3072,7 +3074,7 @@
         <v>43161</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3098,7 +3100,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>53</v>
@@ -3120,7 +3122,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>55</v>
@@ -3142,7 +3144,7 @@
         <v>43220</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>50</v>
@@ -3164,7 +3166,7 @@
         <v>43217</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43221</v>
       </c>
@@ -3188,7 +3190,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43252</v>
       </c>
@@ -3208,7 +3210,7 @@
       <c r="J19" s="12"/>
       <c r="K19" s="15"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43282</v>
       </c>
@@ -3234,7 +3236,7 @@
         <v>43304</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43313</v>
       </c>
@@ -3260,7 +3262,7 @@
         <v>43325</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43344</v>
       </c>
@@ -3286,7 +3288,7 @@
         <v>43362</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>43374</v>
       </c>
@@ -3312,7 +3314,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43405</v>
       </c>
@@ -3338,7 +3340,7 @@
         <v>43413</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>59</v>
@@ -3358,7 +3360,7 @@
         <v>43423</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43435</v>
       </c>
@@ -3384,7 +3386,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>59</v>
@@ -3404,7 +3406,7 @@
         <v>43452</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>59</v>
@@ -3424,7 +3426,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>61</v>
@@ -3444,7 +3446,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="48" t="s">
         <v>46</v>
       </c>
@@ -3459,7 +3461,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43466</v>
       </c>
@@ -3485,7 +3487,7 @@
         <v>43480</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>59</v>
@@ -3505,7 +3507,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43497</v>
       </c>
@@ -3531,7 +3533,7 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>50</v>
@@ -3553,7 +3555,7 @@
         <v>43510</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>59</v>
@@ -3573,7 +3575,7 @@
         <v>43514</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>43525</v>
       </c>
@@ -3599,7 +3601,7 @@
         <v>43528</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43556</v>
       </c>
@@ -3625,7 +3627,7 @@
         <v>43578</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43586</v>
       </c>
@@ -3645,7 +3647,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43617</v>
       </c>
@@ -3671,7 +3673,7 @@
         <v>43620</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>59</v>
@@ -3691,7 +3693,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43647</v>
       </c>
@@ -3717,7 +3719,7 @@
         <v>43654</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>57</v>
@@ -3739,7 +3741,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43678</v>
       </c>
@@ -3765,7 +3767,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>43709</v>
       </c>
@@ -3791,7 +3793,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>51</v>
@@ -3813,7 +3815,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>53</v>
@@ -3835,7 +3837,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>43739</v>
       </c>
@@ -3861,7 +3863,7 @@
         <v>43762</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>53</v>
@@ -3883,7 +3885,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>43770</v>
       </c>
@@ -3903,7 +3905,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>43800</v>
       </c>
@@ -3929,7 +3931,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="48" t="s">
         <v>47</v>
       </c>
@@ -3944,7 +3946,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>43831</v>
       </c>
@@ -3970,7 +3972,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>70</v>
@@ -3990,7 +3992,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>43862</v>
       </c>
@@ -4014,7 +4016,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>43891</v>
       </c>
@@ -4034,7 +4036,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>43922</v>
       </c>
@@ -4054,7 +4056,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>43952</v>
       </c>
@@ -4074,7 +4076,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>43983</v>
       </c>
@@ -4094,7 +4096,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44013</v>
       </c>
@@ -4120,7 +4122,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44044</v>
       </c>
@@ -4140,7 +4142,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44075</v>
       </c>
@@ -4160,7 +4162,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44105</v>
       </c>
@@ -4180,7 +4182,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44136</v>
       </c>
@@ -4200,7 +4202,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44166</v>
       </c>
@@ -4224,7 +4226,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="48" t="s">
         <v>48</v>
       </c>
@@ -4239,7 +4241,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44197</v>
       </c>
@@ -4259,7 +4261,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44228</v>
       </c>
@@ -4279,7 +4281,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44256</v>
       </c>
@@ -4299,7 +4301,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44287</v>
       </c>
@@ -4319,7 +4321,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44317</v>
       </c>
@@ -4339,7 +4341,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44348</v>
       </c>
@@ -4365,7 +4367,7 @@
         <v>44357</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44378</v>
       </c>
@@ -4391,7 +4393,7 @@
         <v>44386</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>50</v>
@@ -4413,7 +4415,7 @@
         <v>44393</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44409</v>
       </c>
@@ -4439,7 +4441,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44440</v>
       </c>
@@ -4459,7 +4461,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44470</v>
       </c>
@@ -4485,7 +4487,7 @@
         <v>44484</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>50</v>
@@ -4507,7 +4509,7 @@
         <v>44489</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>59</v>
@@ -4527,7 +4529,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>44501</v>
       </c>
@@ -4553,7 +4555,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>44531</v>
       </c>
@@ -4577,7 +4579,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>51</v>
@@ -4599,7 +4601,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>82</v>
@@ -4621,7 +4623,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>59</v>
@@ -4641,7 +4643,7 @@
         <v>44552</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>53</v>
@@ -4663,7 +4665,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="48" t="s">
         <v>49</v>
       </c>
@@ -4681,7 +4683,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>44562</v>
       </c>
@@ -4707,7 +4709,7 @@
         <v>44564</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>50</v>
@@ -4729,7 +4731,7 @@
         <v>44582</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>59</v>
@@ -4749,7 +4751,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>55</v>
@@ -4771,7 +4773,7 @@
         <v>44592</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>44593</v>
       </c>
@@ -4797,7 +4799,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4813,7 +4815,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="49"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>44621</v>
       </c>
@@ -4833,7 +4835,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>44652</v>
       </c>
@@ -4859,7 +4861,7 @@
         <v>44656</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>59</v>
@@ -4879,7 +4881,7 @@
         <v>44659</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>98</v>
@@ -4901,7 +4903,7 @@
         <v>44680</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
         <v>101</v>
@@ -4921,7 +4923,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="49"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>44682</v>
       </c>
@@ -4947,7 +4949,7 @@
         <v>44697</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>59</v>
@@ -4967,7 +4969,7 @@
         <v>44699</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>98</v>
@@ -4989,7 +4991,7 @@
         <v>44683</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>100</v>
@@ -5009,7 +5011,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="49"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>44713</v>
       </c>
@@ -5035,7 +5037,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>98</v>
@@ -5057,7 +5059,7 @@
         <v>44718</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>99</v>
@@ -5077,7 +5079,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="49"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>44743</v>
       </c>
@@ -5101,7 +5103,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>44774</v>
       </c>
@@ -5121,7 +5123,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>44805</v>
       </c>
@@ -5147,7 +5149,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
         <v>97</v>
@@ -5167,7 +5169,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>44835</v>
       </c>
@@ -5193,7 +5195,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>94</v>
@@ -5213,7 +5215,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>44866</v>
       </c>
@@ -5233,7 +5235,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>44896</v>
       </c>
@@ -5257,7 +5259,7 @@
         <v>44922</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>51</v>
@@ -5279,7 +5281,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>93</v>
@@ -5299,7 +5301,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="49"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="48" t="s">
         <v>87</v>
       </c>
@@ -5317,7 +5319,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>44927</v>
       </c>
@@ -5337,7 +5339,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>44958</v>
       </c>
@@ -5357,7 +5359,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>44986</v>
       </c>
@@ -5377,7 +5379,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>45017</v>
       </c>
@@ -5397,7 +5399,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>45047</v>
       </c>
@@ -5423,7 +5425,7 @@
         <v>45075</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>45078</v>
       </c>
@@ -5443,7 +5445,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>45108</v>
       </c>
@@ -5469,7 +5471,7 @@
         <v>45124</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>53</v>
@@ -5491,7 +5493,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>45139</v>
       </c>
@@ -5511,7 +5513,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>45170</v>
       </c>
@@ -5537,7 +5539,7 @@
         <v>45184</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>45200</v>
       </c>
@@ -5563,7 +5565,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>57</v>
@@ -5585,7 +5587,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>53</v>
@@ -5607,7 +5609,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>45231</v>
       </c>
@@ -5633,7 +5635,7 @@
         <v>45254</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>45261</v>
       </c>
@@ -5659,7 +5661,7 @@
         <v>45289</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>104</v>
@@ -5676,7 +5678,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20" t="s">
         <v>50</v>
@@ -5695,7 +5697,7 @@
         <v>45278</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="48" t="s">
         <v>102</v>
       </c>
@@ -5713,7 +5715,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>45292</v>
       </c>
@@ -5739,7 +5741,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20" t="s">
         <v>50</v>
@@ -5761,11 +5763,13 @@
         <v>45320</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>45323</v>
       </c>
-      <c r="B135" s="20"/>
+      <c r="B135" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C135" s="13"/>
       <c r="D135" s="39"/>
       <c r="E135" s="9"/>
@@ -5774,12 +5778,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H135" s="39"/>
+      <c r="H135" s="39">
+        <v>2</v>
+      </c>
       <c r="I135" s="9"/>
       <c r="J135" s="11"/>
-      <c r="K135" s="20"/>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K135" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>45352</v>
       </c>
@@ -5797,7 +5805,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>45383</v>
       </c>
@@ -5815,7 +5823,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>45413</v>
       </c>
@@ -5833,7 +5841,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>45444</v>
       </c>
@@ -5851,7 +5859,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>45474</v>
       </c>
@@ -5869,7 +5877,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>45505</v>
       </c>
@@ -5887,7 +5895,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>45536</v>
       </c>
@@ -5905,7 +5913,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>45566</v>
       </c>
@@ -5923,7 +5931,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>45597</v>
       </c>
@@ -5941,7 +5949,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>45627</v>
       </c>
@@ -5959,7 +5967,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -5975,7 +5983,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -5991,7 +5999,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40"/>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -6007,7 +6015,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -6023,7 +6031,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40"/>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -6039,7 +6047,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40"/>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -6055,7 +6063,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
@@ -6071,7 +6079,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40"/>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
@@ -6087,7 +6095,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40"/>
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
@@ -6103,7 +6111,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
@@ -6119,7 +6127,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
       <c r="B156" s="20"/>
       <c r="C156" s="13"/>
@@ -6135,7 +6143,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40"/>
       <c r="B157" s="20"/>
       <c r="C157" s="13"/>
@@ -6151,7 +6159,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40"/>
       <c r="B158" s="20"/>
       <c r="C158" s="13"/>
@@ -6167,7 +6175,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40"/>
       <c r="B159" s="20"/>
       <c r="C159" s="13"/>
@@ -6183,7 +6191,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
       <c r="B160" s="20"/>
       <c r="C160" s="13"/>
@@ -6199,7 +6207,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40"/>
       <c r="B161" s="20"/>
       <c r="C161" s="13"/>
@@ -6215,7 +6223,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20"/>
       <c r="C162" s="13"/>
@@ -6231,7 +6239,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40"/>
       <c r="B163" s="20"/>
       <c r="C163" s="13"/>
@@ -6247,7 +6255,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
       <c r="B164" s="20"/>
       <c r="C164" s="13"/>
@@ -6263,7 +6271,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40"/>
       <c r="B165" s="20"/>
       <c r="C165" s="13"/>
@@ -6279,7 +6287,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40"/>
       <c r="B166" s="20"/>
       <c r="C166" s="13"/>
@@ -6295,7 +6303,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20"/>
       <c r="C167" s="13"/>
@@ -6311,7 +6319,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
       <c r="B168" s="20"/>
       <c r="C168" s="13"/>
@@ -6327,7 +6335,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
       <c r="B169" s="20"/>
       <c r="C169" s="13"/>
@@ -6343,7 +6351,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
       <c r="B170" s="20"/>
       <c r="C170" s="13"/>
@@ -6359,7 +6367,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40"/>
       <c r="B171" s="20"/>
       <c r="C171" s="13"/>
@@ -6375,7 +6383,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20"/>
       <c r="C172" s="13"/>
@@ -6391,7 +6399,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20"/>
       <c r="C173" s="13"/>
@@ -6407,7 +6415,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20"/>
       <c r="C174" s="13"/>
@@ -6423,7 +6431,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20"/>
       <c r="C175" s="13"/>
@@ -6439,7 +6447,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
       <c r="B176" s="20"/>
       <c r="C176" s="13"/>
@@ -6455,7 +6463,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40"/>
       <c r="B177" s="20"/>
       <c r="C177" s="13"/>
@@ -6471,7 +6479,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40"/>
       <c r="B178" s="20"/>
       <c r="C178" s="13"/>
@@ -6487,7 +6495,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
       <c r="B179" s="20"/>
       <c r="C179" s="13"/>
@@ -6503,7 +6511,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="41"/>
       <c r="B180" s="15"/>
       <c r="C180" s="42"/>
@@ -6534,10 +6542,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6560,28 +6568,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -6594,7 +6602,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -6623,7 +6631,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>8.9149999999999991</v>
       </c>
@@ -6651,17 +6659,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -6682,7 +6690,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -6709,7 +6717,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -6735,7 +6743,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -6761,7 +6769,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -6787,7 +6795,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -6813,7 +6821,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -6839,7 +6847,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -6865,7 +6873,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -6891,7 +6899,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -6911,7 +6919,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -6931,7 +6939,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -6951,7 +6959,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -6972,7 +6980,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -6993,7 +7001,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -7014,7 +7022,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -7035,7 +7043,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -7056,7 +7064,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -7077,7 +7085,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -7098,7 +7106,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -7119,7 +7127,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -7140,7 +7148,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -7161,7 +7169,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -7182,7 +7190,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -7203,7 +7211,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -7224,7 +7232,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -7245,7 +7253,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -7266,7 +7274,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -7287,7 +7295,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -7308,7 +7316,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -7329,7 +7337,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -7350,7 +7358,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -7371,7 +7379,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -7380,7 +7388,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -7389,7 +7397,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -7398,7 +7406,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -7407,7 +7415,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -7416,7 +7424,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -7425,7 +7433,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -7434,7 +7442,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -7443,7 +7451,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -7452,7 +7460,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -7461,7 +7469,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -7470,7 +7478,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -7479,7 +7487,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -7488,7 +7496,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -7497,7 +7505,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -7506,7 +7514,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -7515,7 +7523,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -7524,7 +7532,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -7533,7 +7541,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -7542,7 +7550,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -7551,7 +7559,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -7560,7 +7568,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -7569,7 +7577,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -7578,7 +7586,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -7587,7 +7595,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -7596,7 +7604,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -7605,7 +7613,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -7614,7 +7622,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -7623,7 +7631,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -7632,7 +7640,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
